--- a/data_month/zb/固定资产投资(不含农户)/按行业分固定资产投资情况(1998-2003).xlsx
+++ b/data_month/zb/固定资产投资(不含农户)/按行业分固定资产投资情况(1998-2003).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,4269 +588,4269 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.5</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7</v>
+        <v>18.2</v>
       </c>
       <c r="E2" t="n">
-        <v>-22.9</v>
+        <v>-20.4</v>
       </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>-3</v>
+        <v>-3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>-7.6</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4</v>
+        <v>-19.8</v>
       </c>
       <c r="K2" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="L2" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="M2" t="n">
-        <v>29.8</v>
+        <v>177.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7</v>
+        <v>12.7</v>
       </c>
       <c r="O2" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="P2" t="n">
-        <v>45.1</v>
+        <v>-71.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.1</v>
+        <v>6.2</v>
       </c>
       <c r="R2" t="n">
-        <v>13.4</v>
+        <v>6.9</v>
       </c>
       <c r="S2" t="n">
-        <v>56.3</v>
+        <v>27.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
-        <v>58.4</v>
+        <v>74.5</v>
       </c>
       <c r="V2" t="n">
-        <v>14.7</v>
+        <v>18.2</v>
       </c>
       <c r="W2" t="n">
-        <v>14.4</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.8</v>
+        <v>20.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.9</v>
+        <v>11.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>-7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>30.5</v>
+        <v>10.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>-18.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-31.9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
         <v>10.7</v>
       </c>
-      <c r="C3" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="X3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AA3" t="n">
         <v>13.8</v>
       </c>
-      <c r="E3" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="AB3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="AD3" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AE3" t="n">
         <v>14.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-19.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.9</v>
+        <v>1.1</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>13.8</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.3</v>
+        <v>-33</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8</v>
+        <v>11.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>-7.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>-5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4</v>
+        <v>-11</v>
       </c>
       <c r="K4" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="L4" t="n">
-        <v>13.6</v>
+        <v>17.3</v>
       </c>
       <c r="M4" t="n">
-        <v>34.5</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="O4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-7.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7</v>
-      </c>
       <c r="U4" t="n">
-        <v>31.8</v>
+        <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>8</v>
+        <v>13.8</v>
       </c>
       <c r="W4" t="n">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.3</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.5</v>
+        <v>10.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>24.1</v>
+        <v>17.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>-23.1</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.8</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.699999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2</v>
+        <v>14.6</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.4</v>
+        <v>-33.2</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.6</v>
+        <v>-7</v>
       </c>
       <c r="H5" t="n">
-        <v>-7.6</v>
+        <v>-4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>-19.8</v>
+        <v>0.2</v>
       </c>
       <c r="K5" t="n">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="L5" t="n">
-        <v>19.8</v>
+        <v>14.6</v>
       </c>
       <c r="M5" t="n">
-        <v>177.3</v>
+        <v>26.2</v>
       </c>
       <c r="N5" t="n">
-        <v>12.7</v>
+        <v>-9.6</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>-71.2</v>
+        <v>10.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.2</v>
+        <v>-14.9</v>
       </c>
       <c r="R5" t="n">
-        <v>6.9</v>
+        <v>23.3</v>
       </c>
       <c r="S5" t="n">
-        <v>27.4</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>31.2</v>
+        <v>-1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>74.5</v>
+        <v>9.5</v>
       </c>
       <c r="V5" t="n">
-        <v>18.2</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="X5" t="n">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.7</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.3</v>
+        <v>16.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.2</v>
+        <v>13.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-7.8</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.2</v>
+        <v>22.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>20.8</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-30</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="N6" t="n">
         <v>-2.2</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-30.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-10.1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="T6" t="n">
         <v>5.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>-20.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-20.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-31.9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-3.9</v>
-      </c>
       <c r="U6" t="n">
-        <v>98.90000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>10.7</v>
+        <v>12.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>11.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>-7.1</v>
+        <v>31.4</v>
       </c>
       <c r="Z6" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12.1</v>
       </c>
-      <c r="AA6" t="n">
-        <v>13.8</v>
-      </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>15.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>26.8</v>
+        <v>30.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.3</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="D7" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="W7" t="n">
         <v>13.8</v>
       </c>
-      <c r="E7" t="n">
-        <v>-33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-5.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-11</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-13.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-27.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.6</v>
-      </c>
       <c r="X7" t="n">
-        <v>8.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>33.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>15.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.8</v>
+        <v>36.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>-5.6</v>
+        <v>-15.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>6.7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="D8" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="E8" t="n">
-        <v>-33.2</v>
+        <v>-28.8</v>
       </c>
       <c r="F8" t="n">
-        <v>9.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>-7</v>
+        <v>-7.9</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2</v>
+        <v>9.5</v>
       </c>
       <c r="K8" t="n">
-        <v>20.1</v>
+        <v>22.2</v>
       </c>
       <c r="L8" t="n">
-        <v>14.6</v>
+        <v>20.2</v>
       </c>
       <c r="M8" t="n">
-        <v>26.2</v>
+        <v>30.1</v>
       </c>
       <c r="N8" t="n">
-        <v>-9.6</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="P8" t="n">
-        <v>10.6</v>
+        <v>49</v>
       </c>
       <c r="Q8" t="n">
-        <v>-14.9</v>
+        <v>-14.5</v>
       </c>
       <c r="R8" t="n">
-        <v>23.3</v>
+        <v>17.7</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>56.7</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.7</v>
+        <v>2.7</v>
       </c>
       <c r="U8" t="n">
-        <v>9.5</v>
+        <v>29.7</v>
       </c>
       <c r="V8" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="W8" t="n">
+        <v>14</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AA8" t="n">
         <v>9.4</v>
       </c>
-      <c r="X8" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AB8" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>22.1</v>
+        <v>36.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>-9.800000000000001</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6</v>
+        <v>-1.4</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="E9" t="n">
-        <v>-30</v>
+        <v>-25.2</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.7</v>
-      </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>9.1</v>
       </c>
       <c r="K9" t="n">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="L9" t="n">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="M9" t="n">
-        <v>36.1</v>
+        <v>28.5</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.2</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>12.7</v>
+        <v>23.9</v>
       </c>
       <c r="P9" t="n">
-        <v>-16.4</v>
+        <v>60.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>-22.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>22.7</v>
+        <v>15.7</v>
       </c>
       <c r="S9" t="n">
-        <v>41.6</v>
+        <v>59.3</v>
       </c>
       <c r="T9" t="n">
-        <v>5.6</v>
+        <v>-0.5</v>
       </c>
       <c r="U9" t="n">
-        <v>15.9</v>
+        <v>46.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="W9" t="n">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="X9" t="n">
-        <v>11.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.4</v>
+        <v>47.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.7</v>
+        <v>10.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>12.1</v>
+        <v>9.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>30.9</v>
+        <v>33.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>-8.699999999999999</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.3</v>
+        <v>5.1</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.3</v>
+        <v>-22.9</v>
       </c>
       <c r="F10" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.3</v>
+        <v>-3</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>10.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="K10" t="n">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="L10" t="n">
         <v>19.9</v>
       </c>
       <c r="M10" t="n">
-        <v>37.3</v>
+        <v>29.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>20</v>
       </c>
       <c r="P10" t="n">
-        <v>46.9</v>
+        <v>45.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>-14.4</v>
+        <v>-7.1</v>
       </c>
       <c r="R10" t="n">
-        <v>18.7</v>
+        <v>13.4</v>
       </c>
       <c r="S10" t="n">
-        <v>45.2</v>
+        <v>56.3</v>
       </c>
       <c r="T10" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>15.8</v>
+        <v>58.4</v>
       </c>
       <c r="V10" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
       <c r="X10" t="n">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.2</v>
+        <v>47.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>9.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>12.2</v>
+        <v>7.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.6</v>
+        <v>13.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>36.3</v>
+        <v>30.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>-15.2</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.7</v>
+        <v>10.7</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8</v>
+        <v>-2.5</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E11" t="n">
-        <v>-28.8</v>
+        <v>-19.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.9</v>
+        <v>-0.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="I11" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="J11" t="n">
-        <v>9.5</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
-        <v>22.2</v>
+        <v>21.6</v>
       </c>
       <c r="L11" t="n">
-        <v>20.2</v>
+        <v>16.9</v>
       </c>
       <c r="M11" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
-        <v>22</v>
+        <v>24.2</v>
       </c>
       <c r="P11" t="n">
-        <v>49</v>
+        <v>85.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>-14.5</v>
+        <v>-4.4</v>
       </c>
       <c r="R11" t="n">
-        <v>17.7</v>
+        <v>14.3</v>
       </c>
       <c r="S11" t="n">
-        <v>56.7</v>
+        <v>62.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="U11" t="n">
-        <v>29.7</v>
+        <v>64.8</v>
       </c>
       <c r="V11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W11" t="n">
-        <v>14</v>
+        <v>12.2</v>
       </c>
       <c r="X11" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>35.5</v>
+        <v>47</v>
       </c>
       <c r="Z11" t="n">
-        <v>12.8</v>
+        <v>10.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>36.4</v>
+        <v>26.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>-18.8</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.4</v>
+        <v>-10.9</v>
       </c>
       <c r="D12" t="n">
-        <v>14.7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>-25.2</v>
+        <v>-5.3</v>
       </c>
       <c r="F12" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.4</v>
       </c>
-      <c r="G12" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB12" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J12" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>22</v>
-      </c>
-      <c r="L12" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="P12" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-9.699999999999999</v>
-      </c>
-      <c r="R12" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="V12" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="W12" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15.4</v>
-      </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>33.2</v>
+        <v>24.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>-17.8</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.8</v>
+        <v>14.2</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-50.7</v>
+      </c>
+      <c r="R13" t="n">
         <v>-5.5</v>
       </c>
-      <c r="E13" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="S13" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="AA13" t="n">
         <v>23.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="N13" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-7.8</v>
-      </c>
-      <c r="S13" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>21</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23.3</v>
-      </c>
       <c r="AB13" t="n">
-        <v>28.8</v>
+        <v>35.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>30.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>-15.8</v>
+        <v>-37.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.4</v>
+        <v>27.8</v>
       </c>
       <c r="C14" t="n">
-        <v>9.4</v>
+        <v>-0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E14" t="n">
-        <v>44.8</v>
+        <v>5.3</v>
       </c>
       <c r="F14" t="n">
-        <v>5.3</v>
+        <v>-7.2</v>
       </c>
       <c r="G14" t="n">
-        <v>25.3</v>
+        <v>5.7</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
-        <v>10.4</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>50.5</v>
+        <v>25.9</v>
       </c>
       <c r="K14" t="n">
-        <v>28.6</v>
+        <v>23.4</v>
       </c>
       <c r="L14" t="n">
-        <v>20.9</v>
+        <v>40.6</v>
       </c>
       <c r="M14" t="n">
-        <v>63.5</v>
+        <v>67.7</v>
       </c>
       <c r="N14" t="n">
-        <v>28.4</v>
+        <v>24</v>
       </c>
       <c r="O14" t="n">
-        <v>25.4</v>
+        <v>46.2</v>
       </c>
       <c r="P14" t="n">
-        <v>19</v>
+        <v>-25.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.4</v>
+        <v>-5.7</v>
       </c>
       <c r="R14" t="n">
-        <v>-7.3</v>
+        <v>-14.1</v>
       </c>
       <c r="S14" t="n">
-        <v>21.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>13.7</v>
+        <v>23.2</v>
       </c>
       <c r="U14" t="n">
-        <v>20.4</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.3</v>
+        <v>-0.3</v>
       </c>
       <c r="W14" t="n">
-        <v>20.1</v>
+        <v>19.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.5</v>
+        <v>126.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>-1.5</v>
+        <v>-6.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>38.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.9</v>
+        <v>15.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>27.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE14" t="n">
-        <v>-15.6</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.6</v>
+        <v>7.7</v>
       </c>
       <c r="C15" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D15" t="n">
-        <v>-2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E15" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="T15" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="W15" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="AA15" t="n">
         <v>21.6</v>
       </c>
-      <c r="F15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="AB15" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="AC15" t="n">
         <v>20.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>-20</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>11</v>
-      </c>
-      <c r="V15" t="n">
-        <v>-1.99173015136588</v>
-      </c>
-      <c r="W15" t="n">
-        <v>17.5663916017538</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7.83104484324183</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13.7</v>
-      </c>
       <c r="AD15" t="n">
-        <v>19.7</v>
+        <v>39.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.1</v>
+        <v>-22.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.2</v>
+        <v>15.7</v>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>6.2</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.2</v>
+        <v>-11.4</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.9</v>
+        <v>29.2</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.5</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7</v>
+        <v>13.8</v>
       </c>
       <c r="H16" t="n">
-        <v>24.4</v>
+        <v>17.5</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>10.1</v>
       </c>
       <c r="J16" t="n">
-        <v>101.7</v>
+        <v>37.2</v>
       </c>
       <c r="K16" t="n">
-        <v>25</v>
+        <v>27.9</v>
       </c>
       <c r="L16" t="n">
-        <v>39.2</v>
+        <v>31.6</v>
       </c>
       <c r="M16" t="n">
-        <v>49.9</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>10.6</v>
+        <v>22.2</v>
       </c>
       <c r="O16" t="n">
-        <v>48.4</v>
+        <v>38.6</v>
       </c>
       <c r="P16" t="n">
-        <v>87.7</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="n">
-        <v>-50.7</v>
+        <v>2.8</v>
       </c>
       <c r="R16" t="n">
-        <v>-5.5</v>
+        <v>-10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>99.5</v>
+        <v>60.5</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.1</v>
+        <v>32.7</v>
       </c>
       <c r="U16" t="n">
-        <v>62.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="V16" t="n">
-        <v>-3.2</v>
+        <v>-11.4</v>
       </c>
       <c r="W16" t="n">
-        <v>24.3</v>
+        <v>23.3</v>
       </c>
       <c r="X16" t="n">
-        <v>9.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>132.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5.3</v>
+        <v>-1.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>23.1</v>
+        <v>18.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>35.5</v>
+        <v>28.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.3</v>
+        <v>19.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.2</v>
+        <v>46.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>-37.5</v>
+        <v>-23.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6</v>
+        <v>5.7</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3</v>
+        <v>-11.6</v>
       </c>
       <c r="E17" t="n">
-        <v>5.3</v>
+        <v>19.4</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.2</v>
+        <v>-3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>5.7</v>
+        <v>13.6</v>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
+        <v>10.9</v>
       </c>
       <c r="I17" t="n">
-        <v>8.5</v>
+        <v>10.6</v>
       </c>
       <c r="J17" t="n">
-        <v>25.9</v>
+        <v>50.3</v>
       </c>
       <c r="K17" t="n">
-        <v>23.4</v>
+        <v>32.3</v>
       </c>
       <c r="L17" t="n">
-        <v>40.6</v>
+        <v>24.8</v>
       </c>
       <c r="M17" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>21</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>67.7</v>
       </c>
-      <c r="N17" t="n">
-        <v>24</v>
-      </c>
-      <c r="O17" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-25.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-14.1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="T17" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>126.6</v>
-      </c>
       <c r="Z17" t="n">
-        <v>-6.9</v>
+        <v>-1.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.4</v>
+        <v>18.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>38.2</v>
+        <v>27.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>15.2</v>
+        <v>19.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.800000000000001</v>
+        <v>46.9</v>
       </c>
       <c r="AE17" t="n">
-        <v>-30.8</v>
+        <v>-18.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.7</v>
+        <v>26.8</v>
       </c>
       <c r="C18" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.800000000000001</v>
+        <v>-10.2</v>
       </c>
       <c r="E18" t="n">
-        <v>18.9</v>
+        <v>25.9</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.6</v>
+        <v>-1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>13.3</v>
+        <v>16.1</v>
       </c>
       <c r="H18" t="n">
-        <v>19.2</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>21.8</v>
+        <v>55.6</v>
       </c>
       <c r="K18" t="n">
-        <v>25.4</v>
+        <v>32.3</v>
       </c>
       <c r="L18" t="n">
-        <v>29.2</v>
+        <v>26.4</v>
       </c>
       <c r="M18" t="n">
-        <v>85.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="N18" t="n">
-        <v>25.8</v>
+        <v>28.3</v>
       </c>
       <c r="O18" t="n">
-        <v>43.3</v>
+        <v>41.5</v>
       </c>
       <c r="P18" t="n">
-        <v>46.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.8</v>
+        <v>14</v>
       </c>
       <c r="R18" t="n">
-        <v>-13.8</v>
+        <v>-10.9</v>
       </c>
       <c r="S18" t="n">
-        <v>65.59999999999999</v>
+        <v>59</v>
       </c>
       <c r="T18" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="U18" t="n">
-        <v>70.59999999999999</v>
+        <v>52.9</v>
       </c>
       <c r="V18" t="n">
-        <v>-8.800000000000001</v>
+        <v>-10.2</v>
       </c>
       <c r="W18" t="n">
-        <v>22.2</v>
+        <v>23.8</v>
       </c>
       <c r="X18" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>96.8</v>
+        <v>57</v>
       </c>
       <c r="Z18" t="n">
-        <v>-5.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>33.7</v>
+        <v>27.1</v>
       </c>
       <c r="AC18" t="n">
-        <v>20.5</v>
+        <v>18.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>39.3</v>
+        <v>37.7</v>
       </c>
       <c r="AE18" t="n">
-        <v>-22.7</v>
+        <v>-16.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.7</v>
+        <v>25.8</v>
       </c>
       <c r="C19" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D19" t="n">
-        <v>-11.4</v>
+        <v>-8</v>
       </c>
       <c r="E19" t="n">
-        <v>29.2</v>
+        <v>35.1</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.699999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>13.8</v>
+        <v>20.8</v>
       </c>
       <c r="H19" t="n">
-        <v>17.5</v>
+        <v>6.9</v>
       </c>
       <c r="I19" t="n">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>37.2</v>
+        <v>42.1</v>
       </c>
       <c r="K19" t="n">
-        <v>27.9</v>
+        <v>32</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6</v>
+        <v>25.2</v>
       </c>
       <c r="M19" t="n">
-        <v>78.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>22.2</v>
+        <v>27.1</v>
       </c>
       <c r="O19" t="n">
-        <v>38.6</v>
+        <v>35.1</v>
       </c>
       <c r="P19" t="n">
-        <v>26</v>
+        <v>32.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.8</v>
+        <v>23.1</v>
       </c>
       <c r="R19" t="n">
-        <v>-10.6</v>
+        <v>-9.1</v>
       </c>
       <c r="S19" t="n">
-        <v>60.5</v>
+        <v>44.5</v>
       </c>
       <c r="T19" t="n">
-        <v>32.7</v>
+        <v>25.1</v>
       </c>
       <c r="U19" t="n">
-        <v>69.59999999999999</v>
+        <v>42.3</v>
       </c>
       <c r="V19" t="n">
-        <v>-11.4</v>
+        <v>-8</v>
       </c>
       <c r="W19" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="X19" t="n">
-        <v>10.7</v>
+        <v>12.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>78.40000000000001</v>
+        <v>51.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>-1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA19" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AC19" t="n">
         <v>18.6</v>
       </c>
-      <c r="AB19" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>19.3</v>
-      </c>
       <c r="AD19" t="n">
-        <v>46.7</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="n">
-        <v>-23.6</v>
+        <v>-16.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.1</v>
+        <v>22.6</v>
       </c>
       <c r="C20" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.6</v>
+        <v>-6.3</v>
       </c>
       <c r="E20" t="n">
-        <v>19.4</v>
+        <v>40.9</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.4</v>
+        <v>3.9</v>
       </c>
       <c r="G20" t="n">
-        <v>13.6</v>
+        <v>24.3</v>
       </c>
       <c r="H20" t="n">
-        <v>10.9</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="K20" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="N20" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="P20" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>26</v>
+      </c>
+      <c r="U20" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>22</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
         <v>32.3</v>
       </c>
-      <c r="L20" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="N20" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>21</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-10.1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>-11.6</v>
-      </c>
-      <c r="W20" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="X20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>46.9</v>
-      </c>
       <c r="AE20" t="n">
-        <v>-18.9</v>
+        <v>-15.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.8</v>
+        <v>21.8</v>
       </c>
       <c r="C21" t="n">
-        <v>5.1</v>
+        <v>10.4</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.2</v>
+        <v>-5.5</v>
       </c>
       <c r="E21" t="n">
-        <v>25.9</v>
+        <v>42.1</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>16.1</v>
+        <v>23.1</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>55.6</v>
+        <v>53.3</v>
       </c>
       <c r="K21" t="n">
-        <v>32.3</v>
+        <v>30.7</v>
       </c>
       <c r="L21" t="n">
-        <v>26.4</v>
+        <v>23.5</v>
       </c>
       <c r="M21" t="n">
-        <v>69.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>28.3</v>
+        <v>31.2</v>
       </c>
       <c r="O21" t="n">
-        <v>41.5</v>
+        <v>32.2</v>
       </c>
       <c r="P21" t="n">
-        <v>28.7</v>
+        <v>48.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>14</v>
+        <v>17.8</v>
       </c>
       <c r="R21" t="n">
-        <v>-10.9</v>
+        <v>-7.8</v>
       </c>
       <c r="S21" t="n">
-        <v>59</v>
+        <v>33.4</v>
       </c>
       <c r="T21" t="n">
-        <v>24.1</v>
+        <v>20.4</v>
       </c>
       <c r="U21" t="n">
-        <v>52.9</v>
+        <v>23.1</v>
       </c>
       <c r="V21" t="n">
-        <v>-10.2</v>
+        <v>-5.5</v>
       </c>
       <c r="W21" t="n">
-        <v>23.8</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>57</v>
+        <v>50.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>-2.7</v>
+        <v>-0.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>27.1</v>
+        <v>28.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>18.1</v>
+        <v>12.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>37.7</v>
+        <v>30.2</v>
       </c>
       <c r="AE21" t="n">
-        <v>-16.6</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.8</v>
+        <v>14.4</v>
       </c>
       <c r="C22" t="n">
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="D22" t="n">
-        <v>-8</v>
+        <v>-5.3</v>
       </c>
       <c r="E22" t="n">
-        <v>35.1</v>
+        <v>44.8</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1</v>
+        <v>5.3</v>
       </c>
       <c r="G22" t="n">
-        <v>20.8</v>
+        <v>25.3</v>
       </c>
       <c r="H22" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="J22" t="n">
-        <v>42.1</v>
+        <v>50.5</v>
       </c>
       <c r="K22" t="n">
-        <v>32</v>
+        <v>28.6</v>
       </c>
       <c r="L22" t="n">
-        <v>25.2</v>
+        <v>20.9</v>
       </c>
       <c r="M22" t="n">
-        <v>75.90000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="N22" t="n">
-        <v>27.1</v>
+        <v>28.4</v>
       </c>
       <c r="O22" t="n">
-        <v>35.1</v>
+        <v>25.4</v>
       </c>
       <c r="P22" t="n">
-        <v>32.1</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.1</v>
+        <v>20.4</v>
       </c>
       <c r="R22" t="n">
-        <v>-9.1</v>
+        <v>-7.3</v>
       </c>
       <c r="S22" t="n">
-        <v>44.5</v>
+        <v>21.8</v>
       </c>
       <c r="T22" t="n">
-        <v>25.1</v>
+        <v>13.7</v>
       </c>
       <c r="U22" t="n">
-        <v>42.3</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>-8</v>
+        <v>-5.3</v>
       </c>
       <c r="W22" t="n">
-        <v>23.8</v>
+        <v>20.1</v>
       </c>
       <c r="X22" t="n">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.4</v>
+        <v>46.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="AC22" t="n">
-        <v>18.6</v>
+        <v>13.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>38</v>
+        <v>27.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>-16.1</v>
+        <v>-15.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.6</v>
+        <v>13.6</v>
       </c>
       <c r="C23" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.3</v>
+        <v>-2</v>
       </c>
       <c r="E23" t="n">
-        <v>40.9</v>
+        <v>21.6</v>
       </c>
       <c r="F23" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>24.3</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-20</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-1.99173015136588</v>
+      </c>
+      <c r="W23" t="n">
+        <v>17.5663916017538</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7.83104484324183</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AE23" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="N23" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="P23" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="T23" t="n">
-        <v>26</v>
-      </c>
-      <c r="U23" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="V23" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="W23" t="n">
-        <v>22</v>
-      </c>
-      <c r="X23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>-15.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.6</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>38.9</v>
+        <v>31.1</v>
       </c>
       <c r="D24" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="E24" t="n">
-        <v>53.9</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>42.7</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>43.4</v>
+        <v>34.4</v>
       </c>
       <c r="H24" t="n">
-        <v>21.8</v>
+        <v>-13.8</v>
       </c>
       <c r="I24" t="n">
-        <v>25.8</v>
+        <v>16.9</v>
       </c>
       <c r="J24" t="n">
-        <v>33.2</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>29.8</v>
+        <v>27.1</v>
       </c>
       <c r="L24" t="n">
-        <v>28.5</v>
+        <v>29.9</v>
       </c>
       <c r="M24" t="n">
-        <v>28.6</v>
+        <v>23.2</v>
       </c>
       <c r="N24" t="n">
-        <v>62</v>
+        <v>54.6</v>
       </c>
       <c r="O24" t="n">
-        <v>41.7</v>
+        <v>24.8</v>
       </c>
       <c r="P24" t="n">
-        <v>-8</v>
+        <v>204.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.8</v>
+        <v>190.7</v>
       </c>
       <c r="R24" t="n">
-        <v>9.9</v>
+        <v>5.8</v>
       </c>
       <c r="S24" t="n">
-        <v>17.5</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>13</v>
+        <v>40.9</v>
       </c>
       <c r="U24" t="n">
-        <v>10.8</v>
+        <v>43.3</v>
       </c>
       <c r="V24" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="W24" t="n">
-        <v>22.7</v>
+        <v>27.7</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>23.5</v>
+        <v>-0.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.1</v>
+        <v>16</v>
       </c>
       <c r="AA24" t="n">
-        <v>45.6</v>
+        <v>-14.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>40.5</v>
+        <v>-11.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>31.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>-25.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.3</v>
+        <v>17.9</v>
       </c>
       <c r="C25" t="n">
-        <v>40.4</v>
+        <v>35.7</v>
       </c>
       <c r="D25" t="n">
-        <v>35.2</v>
+        <v>11.7</v>
       </c>
       <c r="E25" t="n">
-        <v>48.4</v>
+        <v>38.1</v>
       </c>
       <c r="F25" t="n">
-        <v>38.5</v>
+        <v>52.5</v>
       </c>
       <c r="G25" t="n">
-        <v>39.6</v>
+        <v>46.8</v>
       </c>
       <c r="H25" t="n">
-        <v>21.7</v>
+        <v>13.8</v>
       </c>
       <c r="I25" t="n">
-        <v>26.8</v>
+        <v>24.1</v>
       </c>
       <c r="J25" t="n">
-        <v>43.1</v>
+        <v>67.2</v>
       </c>
       <c r="K25" t="n">
-        <v>28.4</v>
+        <v>36.3</v>
       </c>
       <c r="L25" t="n">
-        <v>29</v>
+        <v>23.4</v>
       </c>
       <c r="M25" t="n">
-        <v>27.9</v>
+        <v>48.1</v>
       </c>
       <c r="N25" t="n">
-        <v>60.6</v>
+        <v>69.2</v>
       </c>
       <c r="O25" t="n">
-        <v>43.8</v>
+        <v>40.9</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.4</v>
+        <v>196.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.7</v>
+        <v>85.5</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>8.1</v>
       </c>
       <c r="S25" t="n">
-        <v>22.5</v>
+        <v>12.1</v>
       </c>
       <c r="T25" t="n">
-        <v>20.1</v>
+        <v>30.8</v>
       </c>
       <c r="U25" t="n">
-        <v>3.4</v>
+        <v>36</v>
       </c>
       <c r="V25" t="n">
-        <v>35.2</v>
+        <v>11.7</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>27.4</v>
       </c>
       <c r="X25" t="n">
-        <v>27.4</v>
+        <v>24.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>43.8</v>
+        <v>14.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>41.2</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.6</v>
+        <v>11.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>-25.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.6</v>
+        <v>27.6</v>
       </c>
       <c r="C26" t="n">
-        <v>32.7</v>
+        <v>42</v>
       </c>
       <c r="D26" t="n">
-        <v>23.5</v>
+        <v>21.7</v>
       </c>
       <c r="E26" t="n">
-        <v>45.9</v>
+        <v>42.6</v>
       </c>
       <c r="F26" t="n">
-        <v>26.8</v>
+        <v>52.5</v>
       </c>
       <c r="G26" t="n">
-        <v>32</v>
+        <v>45.3</v>
       </c>
       <c r="H26" t="n">
-        <v>14.4</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>22.2</v>
+        <v>27.7</v>
       </c>
       <c r="J26" t="n">
-        <v>45.6</v>
+        <v>68.5</v>
       </c>
       <c r="K26" t="n">
-        <v>23.3</v>
+        <v>37.8</v>
       </c>
       <c r="L26" t="n">
-        <v>20.2</v>
+        <v>30.8</v>
       </c>
       <c r="M26" t="n">
-        <v>23.2</v>
+        <v>34.4</v>
       </c>
       <c r="N26" t="n">
-        <v>50.9</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>33.3</v>
+        <v>46.1</v>
       </c>
       <c r="P26" t="n">
-        <v>-17.4</v>
+        <v>-60.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>31</v>
+        <v>49.2</v>
       </c>
       <c r="R26" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S26" t="n">
-        <v>9.5</v>
+        <v>18.7</v>
       </c>
       <c r="T26" t="n">
-        <v>10.7</v>
+        <v>36</v>
       </c>
       <c r="U26" t="n">
-        <v>6.9</v>
+        <v>25</v>
       </c>
       <c r="V26" t="n">
-        <v>23.5004716219016</v>
+        <v>21.7</v>
       </c>
       <c r="W26" t="n">
-        <v>14.4342141180315</v>
+        <v>26.7</v>
       </c>
       <c r="X26" t="n">
-        <v>22.9049598947907</v>
+        <v>28.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.4</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>12.6</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>37.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>33.9</v>
+        <v>17.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.6</v>
+        <v>6.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>-26.6</v>
+        <v>-14.9</v>
       </c>
       <c r="AE26" t="n">
-        <v>-12.6</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
+        <v>23.6</v>
       </c>
       <c r="C27" t="n">
-        <v>31.1</v>
+        <v>39.2</v>
       </c>
       <c r="D27" t="n">
-        <v>35.6</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>42.6</v>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>55.6</v>
       </c>
       <c r="G27" t="n">
-        <v>34.4</v>
+        <v>46.7</v>
       </c>
       <c r="H27" t="n">
-        <v>-13.8</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>16.9</v>
+        <v>24.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>41.9</v>
       </c>
       <c r="K27" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M27" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="N27" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T27" t="n">
         <v>27.1</v>
       </c>
-      <c r="L27" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="M27" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="N27" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="P27" t="n">
-        <v>204.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>40.9</v>
-      </c>
       <c r="U27" t="n">
-        <v>43.3</v>
+        <v>13.2</v>
       </c>
       <c r="V27" t="n">
-        <v>35.6</v>
+        <v>31</v>
       </c>
       <c r="W27" t="n">
-        <v>27.7</v>
+        <v>25.8</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>25.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.7</v>
+        <v>3.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>16</v>
+        <v>13.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>-14.6</v>
+        <v>27.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>-11.9</v>
+        <v>21.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>31.3</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>76.09999999999999</v>
+        <v>-24.6</v>
       </c>
       <c r="AE27" t="n">
-        <v>11.4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.9</v>
+        <v>12.2</v>
       </c>
       <c r="C28" t="n">
-        <v>35.7</v>
+        <v>38.5</v>
       </c>
       <c r="D28" t="n">
-        <v>11.7</v>
+        <v>25.6</v>
       </c>
       <c r="E28" t="n">
-        <v>38.1</v>
+        <v>63.4</v>
       </c>
       <c r="F28" t="n">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>46.8</v>
+        <v>50.4</v>
       </c>
       <c r="H28" t="n">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="I28" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="J28" t="n">
-        <v>67.2</v>
+        <v>32.6</v>
       </c>
       <c r="K28" t="n">
-        <v>36.3</v>
+        <v>33</v>
       </c>
       <c r="L28" t="n">
-        <v>23.4</v>
+        <v>29.7</v>
       </c>
       <c r="M28" t="n">
-        <v>48.1</v>
+        <v>30.3</v>
       </c>
       <c r="N28" t="n">
-        <v>69.2</v>
+        <v>77.3</v>
       </c>
       <c r="O28" t="n">
-        <v>40.9</v>
+        <v>46</v>
       </c>
       <c r="P28" t="n">
-        <v>196.4</v>
+        <v>45.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.5</v>
+        <v>45.1</v>
       </c>
       <c r="R28" t="n">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="S28" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="T28" t="n">
-        <v>30.8</v>
+        <v>19</v>
       </c>
       <c r="U28" t="n">
-        <v>36</v>
+        <v>17.6</v>
       </c>
       <c r="V28" t="n">
-        <v>11.7</v>
+        <v>25.6</v>
       </c>
       <c r="W28" t="n">
-        <v>27.4</v>
+        <v>23.8</v>
       </c>
       <c r="X28" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.4</v>
+        <v>11.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>14.9</v>
+        <v>32.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.8</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.6</v>
+        <v>-30.1</v>
       </c>
       <c r="AE28" t="n">
-        <v>19.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.6</v>
+        <v>12.7</v>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>42.9</v>
       </c>
       <c r="D29" t="n">
-        <v>21.7</v>
+        <v>26.6</v>
       </c>
       <c r="E29" t="n">
-        <v>42.6</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>52.5</v>
+        <v>50.9</v>
       </c>
       <c r="G29" t="n">
-        <v>45.3</v>
+        <v>51.8</v>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>15.6</v>
       </c>
       <c r="I29" t="n">
-        <v>27.7</v>
+        <v>25.9</v>
       </c>
       <c r="J29" t="n">
-        <v>68.5</v>
+        <v>26.4</v>
       </c>
       <c r="K29" t="n">
-        <v>37.8</v>
+        <v>31.4</v>
       </c>
       <c r="L29" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="M29" t="n">
-        <v>34.4</v>
+        <v>29.9</v>
       </c>
       <c r="N29" t="n">
-        <v>74.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>46.1</v>
+        <v>39.1</v>
       </c>
       <c r="P29" t="n">
-        <v>-60.2</v>
+        <v>126.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.2</v>
+        <v>39.5</v>
       </c>
       <c r="R29" t="n">
-        <v>11.8</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>18.7</v>
+        <v>8.6</v>
       </c>
       <c r="T29" t="n">
-        <v>36</v>
+        <v>15.6</v>
       </c>
       <c r="U29" t="n">
-        <v>25</v>
+        <v>16.4</v>
       </c>
       <c r="V29" t="n">
-        <v>21.7</v>
+        <v>26.6</v>
       </c>
       <c r="W29" t="n">
-        <v>26.7</v>
+        <v>23.2</v>
       </c>
       <c r="X29" t="n">
-        <v>28.5</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>15.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>12.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.6</v>
+        <v>40.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>17.3</v>
+        <v>34.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>-14.9</v>
+        <v>-30.1</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.6</v>
+        <v>10.8</v>
       </c>
       <c r="C30" t="n">
-        <v>39.2</v>
+        <v>40.7</v>
       </c>
       <c r="D30" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="E30" t="n">
-        <v>42.6</v>
+        <v>55.4</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6</v>
+        <v>50.2</v>
       </c>
       <c r="G30" t="n">
-        <v>46.7</v>
+        <v>47.2</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>19.1</v>
       </c>
       <c r="I30" t="n">
-        <v>24.8</v>
+        <v>25.5</v>
       </c>
       <c r="J30" t="n">
-        <v>41.9</v>
+        <v>33.4</v>
       </c>
       <c r="K30" t="n">
-        <v>35.5</v>
+        <v>30.7</v>
       </c>
       <c r="L30" t="n">
-        <v>26.9</v>
+        <v>30.7</v>
       </c>
       <c r="M30" t="n">
-        <v>33.6</v>
+        <v>26.1</v>
       </c>
       <c r="N30" t="n">
-        <v>72.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>42.6</v>
+        <v>41.3</v>
       </c>
       <c r="P30" t="n">
-        <v>-9.9</v>
+        <v>27.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>53.7</v>
+        <v>36</v>
       </c>
       <c r="R30" t="n">
-        <v>7.1</v>
+        <v>10.1</v>
       </c>
       <c r="S30" t="n">
-        <v>12.1</v>
+        <v>11.3</v>
       </c>
       <c r="T30" t="n">
-        <v>27.1</v>
+        <v>13.3</v>
       </c>
       <c r="U30" t="n">
-        <v>13.2</v>
+        <v>16</v>
       </c>
       <c r="V30" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="W30" t="n">
-        <v>25.8</v>
+        <v>23.2</v>
       </c>
       <c r="X30" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.9</v>
+        <v>19.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>27.2</v>
+        <v>40.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>21.7</v>
+        <v>36.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>-24.6</v>
+        <v>-27.4</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C31" t="n">
-        <v>38.5</v>
+        <v>41.2</v>
       </c>
       <c r="D31" t="n">
-        <v>25.6</v>
+        <v>32.9</v>
       </c>
       <c r="E31" t="n">
-        <v>63.4</v>
+        <v>53.4</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>44.5</v>
       </c>
       <c r="G31" t="n">
-        <v>50.4</v>
+        <v>44.2</v>
       </c>
       <c r="H31" t="n">
-        <v>12.1</v>
+        <v>22.7</v>
       </c>
       <c r="I31" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="J31" t="n">
-        <v>32.6</v>
+        <v>35.2</v>
       </c>
       <c r="K31" t="n">
-        <v>33</v>
+        <v>29.8</v>
       </c>
       <c r="L31" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="M31" t="n">
-        <v>30.3</v>
+        <v>28.6</v>
       </c>
       <c r="N31" t="n">
-        <v>77.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P31" t="n">
-        <v>45.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.1</v>
+        <v>37.9</v>
       </c>
       <c r="R31" t="n">
-        <v>7.4</v>
+        <v>9.1</v>
       </c>
       <c r="S31" t="n">
-        <v>12.8</v>
+        <v>14.1</v>
       </c>
       <c r="T31" t="n">
-        <v>19</v>
+        <v>11.3</v>
       </c>
       <c r="U31" t="n">
-        <v>17.6</v>
+        <v>14.6</v>
       </c>
       <c r="V31" t="n">
-        <v>25.6</v>
+        <v>32.9</v>
       </c>
       <c r="W31" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="X31" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.9</v>
+        <v>23.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.8</v>
+        <v>10.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>32.4</v>
+        <v>43.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>27</v>
+        <v>39.1</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>-30.1</v>
+        <v>-26.1</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C32" t="n">
-        <v>42.9</v>
+        <v>38.9</v>
       </c>
       <c r="D32" t="n">
-        <v>26.6</v>
+        <v>35.5</v>
       </c>
       <c r="E32" t="n">
-        <v>64.09999999999999</v>
+        <v>53.9</v>
       </c>
       <c r="F32" t="n">
-        <v>50.9</v>
+        <v>42.7</v>
       </c>
       <c r="G32" t="n">
-        <v>51.8</v>
+        <v>43.4</v>
       </c>
       <c r="H32" t="n">
-        <v>15.6</v>
+        <v>21.8</v>
       </c>
       <c r="I32" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="J32" t="n">
-        <v>26.4</v>
+        <v>33.2</v>
       </c>
       <c r="K32" t="n">
-        <v>31.4</v>
+        <v>29.8</v>
       </c>
       <c r="L32" t="n">
-        <v>29.8</v>
+        <v>28.5</v>
       </c>
       <c r="M32" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="N32" t="n">
-        <v>67.90000000000001</v>
+        <v>62</v>
       </c>
       <c r="O32" t="n">
-        <v>39.1</v>
+        <v>41.7</v>
       </c>
       <c r="P32" t="n">
-        <v>126.1</v>
+        <v>-8</v>
       </c>
       <c r="Q32" t="n">
-        <v>39.5</v>
+        <v>42.8</v>
       </c>
       <c r="R32" t="n">
         <v>9.9</v>
       </c>
       <c r="S32" t="n">
-        <v>8.6</v>
+        <v>17.5</v>
       </c>
       <c r="T32" t="n">
-        <v>15.6</v>
+        <v>13</v>
       </c>
       <c r="U32" t="n">
-        <v>16.4</v>
+        <v>10.8</v>
       </c>
       <c r="V32" t="n">
-        <v>26.6</v>
+        <v>35.5</v>
       </c>
       <c r="W32" t="n">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="X32" t="n">
         <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.9</v>
+        <v>23.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>40.1</v>
+        <v>45.6</v>
       </c>
       <c r="AB32" t="n">
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>-30.1</v>
+        <v>-25.2</v>
       </c>
       <c r="AE32" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>29</v>
+      </c>
+      <c r="M33" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="N33" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="R33" t="n">
         <v>10.8</v>
       </c>
-      <c r="C33" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D33" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E33" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L33" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="M33" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="O33" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="S33" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>21</v>
+      </c>
+      <c r="X33" t="n">
         <v>27.4</v>
       </c>
-      <c r="Q33" t="n">
-        <v>36</v>
-      </c>
-      <c r="R33" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="U33" t="n">
-        <v>16</v>
-      </c>
-      <c r="V33" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="W33" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="X33" t="n">
-        <v>25.7</v>
-      </c>
       <c r="Y33" t="n">
-        <v>19.9</v>
+        <v>32.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>14.8</v>
       </c>
       <c r="AA33" t="n">
-        <v>40.9</v>
+        <v>43.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>36.1</v>
+        <v>41.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>6.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>-27.4</v>
+        <v>-25.3</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
       <c r="C34" t="n">
-        <v>41.2</v>
+        <v>32.7</v>
       </c>
       <c r="D34" t="n">
-        <v>32.9</v>
+        <v>23.5</v>
       </c>
       <c r="E34" t="n">
-        <v>53.4</v>
+        <v>45.9</v>
       </c>
       <c r="F34" t="n">
-        <v>44.5</v>
+        <v>26.8</v>
       </c>
       <c r="G34" t="n">
-        <v>44.2</v>
+        <v>32</v>
       </c>
       <c r="H34" t="n">
-        <v>22.7</v>
+        <v>14.4</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="J34" t="n">
-        <v>35.2</v>
+        <v>45.6</v>
       </c>
       <c r="K34" t="n">
-        <v>29.8</v>
+        <v>23.3</v>
       </c>
       <c r="L34" t="n">
-        <v>30.3</v>
+        <v>20.2</v>
       </c>
       <c r="M34" t="n">
-        <v>28.6</v>
+        <v>23.2</v>
       </c>
       <c r="N34" t="n">
-        <v>64.40000000000001</v>
+        <v>50.9</v>
       </c>
       <c r="O34" t="n">
-        <v>41</v>
+        <v>33.3</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>-17.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.9</v>
+        <v>31</v>
       </c>
       <c r="R34" t="n">
-        <v>9.1</v>
+        <v>11.9</v>
       </c>
       <c r="S34" t="n">
-        <v>14.1</v>
+        <v>9.5</v>
       </c>
       <c r="T34" t="n">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="U34" t="n">
-        <v>14.6</v>
+        <v>6.9</v>
       </c>
       <c r="V34" t="n">
-        <v>32.9</v>
+        <v>23.5004716219016</v>
       </c>
       <c r="W34" t="n">
-        <v>23.4</v>
+        <v>14.4342141180315</v>
       </c>
       <c r="X34" t="n">
-        <v>25.4</v>
+        <v>22.9049598947907</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.2</v>
+        <v>21.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>10.9</v>
+        <v>12.6</v>
       </c>
       <c r="AA34" t="n">
-        <v>43.9</v>
+        <v>37.7</v>
       </c>
       <c r="AB34" t="n">
-        <v>39.1</v>
+        <v>33.9</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>-26.1</v>
+        <v>-26.6</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.1</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>53.8335513411025</v>
+        <v>28.0424954218457</v>
       </c>
       <c r="C35" t="n">
-        <v>25.9448073714254</v>
+        <v>1.09368001143787</v>
       </c>
       <c r="D35" t="n">
-        <v>7.27743397322885</v>
+        <v>-6.69846087145026</v>
       </c>
       <c r="E35" t="n">
-        <v>108.85549167396</v>
+        <v>121.745101385083</v>
       </c>
       <c r="F35" t="n">
-        <v>70.9146176147672</v>
+        <v>33.5649901012495</v>
       </c>
       <c r="G35" t="n">
-        <v>85.03438793379959</v>
+        <v>69.34032156855849</v>
       </c>
       <c r="H35" t="n">
-        <v>27.1333090435885</v>
+        <v>33.2592793386964</v>
       </c>
       <c r="I35" t="n">
-        <v>46.5114728592953</v>
+        <v>55.4935602168379</v>
       </c>
       <c r="J35" t="n">
-        <v>46.5302667089048</v>
+        <v>169.825512404364</v>
       </c>
       <c r="K35" t="n">
-        <v>30.7190153436506</v>
+        <v>36.0449053106475</v>
       </c>
       <c r="L35" t="n">
-        <v>36.2632996042329</v>
+        <v>40.9578290602843</v>
       </c>
       <c r="M35" t="n">
-        <v>71.2729722928471</v>
+        <v>67.2427233615096</v>
       </c>
       <c r="N35" t="n">
-        <v>70.8185060907981</v>
+        <v>96.1676415221514</v>
       </c>
       <c r="O35" t="n">
-        <v>52.4606564234662</v>
+        <v>73.82006820017089</v>
       </c>
       <c r="P35" t="n">
-        <v>52.5823809550091</v>
+        <v>71.4285714285714</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.3936532325221</v>
+        <v>40.3498078849082</v>
       </c>
       <c r="R35" t="n">
-        <v>23.5709525483992</v>
+        <v>28.8553287307439</v>
       </c>
       <c r="S35" t="n">
-        <v>22.2431398732759</v>
+        <v>48.4693946914682</v>
       </c>
       <c r="T35" t="n">
-        <v>3.90013448113134</v>
+        <v>40.9637573932823</v>
       </c>
       <c r="U35" t="n">
-        <v>86.4542094644675</v>
+        <v>132.657187415863</v>
       </c>
       <c r="V35" t="n">
-        <v>7.27743397322885</v>
+        <v>-6.69846087145026</v>
       </c>
       <c r="W35" t="n">
-        <v>23.4770302533334</v>
+        <v>24.3303705183262</v>
       </c>
       <c r="X35" t="n">
-        <v>46.5120244630611</v>
+        <v>57.9629354567245</v>
       </c>
       <c r="Y35" t="n">
-        <v>84.4956218099797</v>
+        <v>140.484577058087</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.7297319137262</v>
+        <v>32.5552480241286</v>
       </c>
       <c r="AA35" t="n">
-        <v>60.4750799470857</v>
+        <v>100.370498283758</v>
       </c>
       <c r="AB35" t="n">
-        <v>65.3996281418914</v>
+        <v>109.213271320772</v>
       </c>
       <c r="AC35" t="n">
-        <v>5.01304758410611</v>
+        <v>-1.35767993648969</v>
       </c>
       <c r="AD35" t="n">
-        <v>-7.32189743435956</v>
+        <v>-42.3387392103094</v>
       </c>
       <c r="AE35" t="n">
-        <v>-23.7472987656634</v>
+        <v>-31.3428689294968</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.5712307730068</v>
+        <v>40.7876583334897</v>
       </c>
       <c r="C36" t="n">
-        <v>25.6188739444925</v>
+        <v>26.7927351079076</v>
       </c>
       <c r="D36" t="n">
-        <v>4.74860357019193</v>
+        <v>6.58717342661559</v>
       </c>
       <c r="E36" t="n">
-        <v>104.115239907723</v>
+        <v>153.703967392283</v>
       </c>
       <c r="F36" t="n">
-        <v>70.2782389275001</v>
+        <v>47.1633263040033</v>
       </c>
       <c r="G36" t="n">
-        <v>82.77891229367199</v>
+        <v>76.8975013342725</v>
       </c>
       <c r="H36" t="n">
-        <v>27.6670182261514</v>
+        <v>25.4047907947585</v>
       </c>
       <c r="I36" t="n">
-        <v>43.7920452280218</v>
+        <v>49.7422288631208</v>
       </c>
       <c r="J36" t="n">
-        <v>44.1411436308727</v>
+        <v>84.2953245148279</v>
       </c>
       <c r="K36" t="n">
-        <v>31.6328114568884</v>
+        <v>32.6</v>
       </c>
       <c r="L36" t="n">
-        <v>35.4498725357746</v>
+        <v>43.848032651985</v>
       </c>
       <c r="M36" t="n">
-        <v>70.50176061196041</v>
+        <v>22.6592627228717</v>
       </c>
       <c r="N36" t="n">
-        <v>65.7982237680442</v>
+        <v>67.50262567327989</v>
       </c>
       <c r="O36" t="n">
-        <v>48.4739030347429</v>
+        <v>61.9779815713902</v>
       </c>
       <c r="P36" t="n">
-        <v>43.2858542409875</v>
+        <v>-24.9543398421155</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.7878640439254</v>
+        <v>26.2775173497164</v>
       </c>
       <c r="R36" t="n">
-        <v>21.9968571913591</v>
+        <v>31.3247342594772</v>
       </c>
       <c r="S36" t="n">
-        <v>19.6195686138675</v>
+        <v>53.5193569455869</v>
       </c>
       <c r="T36" t="n">
-        <v>0.754881161672213</v>
+        <v>18.0124961604492</v>
       </c>
       <c r="U36" t="n">
-        <v>85.44103445569399</v>
+        <v>72.5872209733736</v>
       </c>
       <c r="V36" t="n">
-        <v>4.74860357019193</v>
+        <v>6.58717342661559</v>
       </c>
       <c r="W36" t="n">
-        <v>23.8203155309706</v>
+        <v>23.6</v>
       </c>
       <c r="X36" t="n">
-        <v>43.8051042469741</v>
+        <v>50.5954718717421</v>
       </c>
       <c r="Y36" t="n">
-        <v>74.45559076597659</v>
+        <v>65.7510207859988</v>
       </c>
       <c r="Z36" t="n">
-        <v>17.3570790839955</v>
+        <v>27.3908212254519</v>
       </c>
       <c r="AA36" t="n">
-        <v>60.0967488685732</v>
+        <v>73.9726486717738</v>
       </c>
       <c r="AB36" t="n">
-        <v>63.1551831243484</v>
+        <v>72.0379421948233</v>
       </c>
       <c r="AC36" t="n">
-        <v>5.21452230472804</v>
+        <v>-2.3178745382482</v>
       </c>
       <c r="AD36" t="n">
-        <v>-5.8073722522407</v>
+        <v>-22.2177337911533</v>
       </c>
       <c r="AE36" t="n">
-        <v>-23.9742285472704</v>
+        <v>-46.0422384940889</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.30488876616</v>
+        <v>48.7174822630526</v>
       </c>
       <c r="C37" t="n">
-        <v>22.9554469088435</v>
+        <v>17.8491886732421</v>
       </c>
       <c r="D37" t="n">
-        <v>3.65305909197813</v>
+        <v>11.6480793060719</v>
       </c>
       <c r="E37" t="n">
-        <v>87.1775752139734</v>
+        <v>127.225571562794</v>
       </c>
       <c r="F37" t="n">
-        <v>61.3107230580753</v>
+        <v>61.1982591482842</v>
       </c>
       <c r="G37" t="n">
-        <v>71.76344658450699</v>
+        <v>77.8393988120631</v>
       </c>
       <c r="H37" t="n">
-        <v>24.7563614225775</v>
+        <v>33.3293922913218</v>
       </c>
       <c r="I37" t="n">
-        <v>38.9806347801692</v>
+        <v>50.0459467018258</v>
       </c>
       <c r="J37" t="n">
-        <v>41.5413961560981</v>
+        <v>59.3249305703909</v>
       </c>
       <c r="K37" t="n">
-        <v>33.1088348246674</v>
+        <v>30.5219591383067</v>
       </c>
       <c r="L37" t="n">
-        <v>37.1050803883535</v>
+        <v>37.7411757365901</v>
       </c>
       <c r="M37" t="n">
-        <v>68.68860667950609</v>
+        <v>30.9571558796718</v>
       </c>
       <c r="N37" t="n">
-        <v>53.8052669277508</v>
+        <v>63.59788014321</v>
       </c>
       <c r="O37" t="n">
-        <v>41.2160531301874</v>
+        <v>54.9679312620538</v>
       </c>
       <c r="P37" t="n">
-        <v>7.75187465220218</v>
+        <v>-31.5789473684211</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.3078862193394</v>
+        <v>48.3379054381152</v>
       </c>
       <c r="R37" t="n">
-        <v>19.0683632173121</v>
+        <v>34.1264526295056</v>
       </c>
       <c r="S37" t="n">
-        <v>17.8561209086156</v>
+        <v>42.6033843373119</v>
       </c>
       <c r="T37" t="n">
-        <v>6.79391317864071</v>
+        <v>12.2277757943591</v>
       </c>
       <c r="U37" t="n">
-        <v>47.4628796294544</v>
+        <v>60.5800214822771</v>
       </c>
       <c r="V37" t="n">
-        <v>3.65305909197813</v>
+        <v>11.6480793060719</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2296651434816</v>
+        <v>21.92397845188</v>
       </c>
       <c r="X37" t="n">
-        <v>39.0724625496535</v>
+        <v>50.2944910165944</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.69500346144611</v>
+        <v>92.088076133607</v>
       </c>
       <c r="Z37" t="n">
-        <v>17.481256139029</v>
+        <v>28.1067763543985</v>
       </c>
       <c r="AA37" t="n">
-        <v>54.0900899902858</v>
+        <v>73.88095620086629</v>
       </c>
       <c r="AB37" t="n">
-        <v>56.761655433171</v>
+        <v>77.93545490822029</v>
       </c>
       <c r="AC37" t="n">
-        <v>5.60672736443823</v>
+        <v>-0.830002307294166</v>
       </c>
       <c r="AD37" t="n">
-        <v>-4.58952959119598</v>
+        <v>-11.5633811016942</v>
       </c>
       <c r="AE37" t="n">
-        <v>-22.3835742324366</v>
+        <v>-37.6361260345579</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.0424954218457</v>
+        <v>56.4465134642665</v>
       </c>
       <c r="C38" t="n">
-        <v>1.09368001143787</v>
+        <v>34.489108065773</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.69846087145026</v>
+        <v>12.3702511569964</v>
       </c>
       <c r="E38" t="n">
-        <v>121.745101385083</v>
+        <v>140.806728140815</v>
       </c>
       <c r="F38" t="n">
-        <v>33.5649901012495</v>
+        <v>62.5634425127269</v>
       </c>
       <c r="G38" t="n">
-        <v>69.34032156855849</v>
+        <v>86.4308005532472</v>
       </c>
       <c r="H38" t="n">
-        <v>33.2592793386964</v>
+        <v>23.5104053665262</v>
       </c>
       <c r="I38" t="n">
-        <v>55.4935602168379</v>
+        <v>52.3843934655453</v>
       </c>
       <c r="J38" t="n">
-        <v>169.825512404364</v>
+        <v>64.6805404887016</v>
       </c>
       <c r="K38" t="n">
-        <v>36.0449053106475</v>
+        <v>28.4959395374855</v>
       </c>
       <c r="L38" t="n">
-        <v>40.9578290602843</v>
+        <v>40.3364605903718</v>
       </c>
       <c r="M38" t="n">
-        <v>67.2427233615096</v>
+        <v>46.3827026566237</v>
       </c>
       <c r="N38" t="n">
-        <v>96.1676415221514</v>
+        <v>68.79755400091911</v>
       </c>
       <c r="O38" t="n">
-        <v>73.82006820017089</v>
+        <v>64.6805404887016</v>
       </c>
       <c r="P38" t="n">
-        <v>71.4285714285714</v>
+        <v>98.11320754716979</v>
       </c>
       <c r="Q38" t="n">
-        <v>40.3498078849082</v>
+        <v>58.0933188691535</v>
       </c>
       <c r="R38" t="n">
-        <v>28.8553287307439</v>
+        <v>28.8167783378288</v>
       </c>
       <c r="S38" t="n">
-        <v>48.4693946914682</v>
+        <v>58.0933188691535</v>
       </c>
       <c r="T38" t="n">
-        <v>40.9637573932823</v>
+        <v>8.689156722543061</v>
       </c>
       <c r="U38" t="n">
-        <v>132.657187415863</v>
+        <v>97.6166485864419</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.69846087145026</v>
+        <v>12.3702511569964</v>
       </c>
       <c r="W38" t="n">
-        <v>24.3303705183262</v>
+        <v>22.9347742979487</v>
       </c>
       <c r="X38" t="n">
-        <v>57.9629354567245</v>
+        <v>52.7037739077051</v>
       </c>
       <c r="Y38" t="n">
-        <v>140.484577058087</v>
+        <v>104.935783719273</v>
       </c>
       <c r="Z38" t="n">
-        <v>32.5552480241286</v>
+        <v>23.9373549159414</v>
       </c>
       <c r="AA38" t="n">
-        <v>100.370498283758</v>
+        <v>76.9139520678623</v>
       </c>
       <c r="AB38" t="n">
-        <v>109.213271320772</v>
+        <v>82.6456903601963</v>
       </c>
       <c r="AC38" t="n">
-        <v>-1.35767993648969</v>
+        <v>3.29961176109463</v>
       </c>
       <c r="AD38" t="n">
-        <v>-42.3387392103094</v>
+        <v>-5.89683400645622</v>
       </c>
       <c r="AE38" t="n">
-        <v>-31.3428689294968</v>
+        <v>-56.0851892030129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.7876583334897</v>
+        <v>46.5620363887616</v>
       </c>
       <c r="C39" t="n">
-        <v>26.7927351079076</v>
+        <v>36.7640241808037</v>
       </c>
       <c r="D39" t="n">
-        <v>6.58717342661559</v>
+        <v>16.6945481273221</v>
       </c>
       <c r="E39" t="n">
-        <v>153.703967392283</v>
+        <v>133.834781006935</v>
       </c>
       <c r="F39" t="n">
-        <v>47.1633263040033</v>
+        <v>69.9903160128334</v>
       </c>
       <c r="G39" t="n">
-        <v>76.8975013342725</v>
+        <v>90.9983631853232</v>
       </c>
       <c r="H39" t="n">
-        <v>25.4047907947585</v>
+        <v>30.9951221043311</v>
       </c>
       <c r="I39" t="n">
-        <v>49.7422288631208</v>
+        <v>51.5998829513912</v>
       </c>
       <c r="J39" t="n">
-        <v>84.2953245148279</v>
+        <v>56.4915609128407</v>
       </c>
       <c r="K39" t="n">
-        <v>32.6</v>
+        <v>29.7265380847226</v>
       </c>
       <c r="L39" t="n">
-        <v>43.848032651985</v>
+        <v>36.7133027516066</v>
       </c>
       <c r="M39" t="n">
-        <v>22.6592627228717</v>
+        <v>62.7344774779627</v>
       </c>
       <c r="N39" t="n">
-        <v>67.50262567327989</v>
+        <v>65.860863782528</v>
       </c>
       <c r="O39" t="n">
-        <v>61.9779815713902</v>
+        <v>55.1102241809975</v>
       </c>
       <c r="P39" t="n">
-        <v>-24.9543398421155</v>
+        <v>72.63150525093199</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.2775173497164</v>
+        <v>59.7183456889957</v>
       </c>
       <c r="R39" t="n">
-        <v>31.3247342594772</v>
+        <v>28.8231462608559</v>
       </c>
       <c r="S39" t="n">
-        <v>53.5193569455869</v>
+        <v>37.0966797826969</v>
       </c>
       <c r="T39" t="n">
-        <v>18.0124961604492</v>
+        <v>6.52345574015204</v>
       </c>
       <c r="U39" t="n">
-        <v>72.5872209733736</v>
+        <v>126.020456772418</v>
       </c>
       <c r="V39" t="n">
-        <v>6.58717342661559</v>
+        <v>16.6945481273221</v>
       </c>
       <c r="W39" t="n">
-        <v>23.6</v>
+        <v>24.3550362442381</v>
       </c>
       <c r="X39" t="n">
-        <v>50.5954718717421</v>
+        <v>51.755912970307</v>
       </c>
       <c r="Y39" t="n">
-        <v>65.7510207859988</v>
+        <v>113.90726585975</v>
       </c>
       <c r="Z39" t="n">
-        <v>27.3908212254519</v>
+        <v>23.9235679152085</v>
       </c>
       <c r="AA39" t="n">
-        <v>73.9726486717738</v>
+        <v>72.5626537049049</v>
       </c>
       <c r="AB39" t="n">
-        <v>72.0379421948233</v>
+        <v>80.8346254296624</v>
       </c>
       <c r="AC39" t="n">
-        <v>-2.3178745382482</v>
+        <v>4.31039209256631</v>
       </c>
       <c r="AD39" t="n">
-        <v>-22.2177337911533</v>
+        <v>-3.21671024489646</v>
       </c>
       <c r="AE39" t="n">
-        <v>-46.0422384940889</v>
+        <v>-33.1957297977079</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.7174822630526</v>
+        <v>49.2439553443127</v>
       </c>
       <c r="C40" t="n">
-        <v>17.8491886732421</v>
+        <v>37.7015551879847</v>
       </c>
       <c r="D40" t="n">
-        <v>11.6480793060719</v>
+        <v>14.8968126713008</v>
       </c>
       <c r="E40" t="n">
-        <v>127.225571562794</v>
+        <v>129.714262079432</v>
       </c>
       <c r="F40" t="n">
-        <v>61.1982591482842</v>
+        <v>70.37871130574069</v>
       </c>
       <c r="G40" t="n">
-        <v>77.8393988120631</v>
+        <v>90.6647511592364</v>
       </c>
       <c r="H40" t="n">
-        <v>33.3293922913218</v>
+        <v>27.8651353459913</v>
       </c>
       <c r="I40" t="n">
-        <v>50.0459467018258</v>
+        <v>50.8624611548332</v>
       </c>
       <c r="J40" t="n">
-        <v>59.3249305703909</v>
+        <v>54.476957583275</v>
       </c>
       <c r="K40" t="n">
-        <v>30.5219591383067</v>
+        <v>30.0424733453067</v>
       </c>
       <c r="L40" t="n">
-        <v>37.7411757365901</v>
+        <v>36.7316488548545</v>
       </c>
       <c r="M40" t="n">
-        <v>30.9571558796718</v>
+        <v>70.737708649629</v>
       </c>
       <c r="N40" t="n">
-        <v>63.59788014321</v>
+        <v>70.33427366659519</v>
       </c>
       <c r="O40" t="n">
-        <v>54.9679312620538</v>
+        <v>54.7974276347825</v>
       </c>
       <c r="P40" t="n">
-        <v>-31.5789473684211</v>
+        <v>10.2229368760931</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.3379054381152</v>
+        <v>61.2348176827448</v>
       </c>
       <c r="R40" t="n">
-        <v>34.1264526295056</v>
+        <v>26.2643830128748</v>
       </c>
       <c r="S40" t="n">
-        <v>42.6033843373119</v>
+        <v>29.2070656263564</v>
       </c>
       <c r="T40" t="n">
-        <v>12.2277757943591</v>
+        <v>8.074472516429269</v>
       </c>
       <c r="U40" t="n">
-        <v>60.5800214822771</v>
+        <v>119.361743802108</v>
       </c>
       <c r="V40" t="n">
-        <v>11.6480793060719</v>
+        <v>14.8968126713008</v>
       </c>
       <c r="W40" t="n">
-        <v>21.92397845188</v>
+        <v>24.7886606637231</v>
       </c>
       <c r="X40" t="n">
-        <v>50.2944910165944</v>
+        <v>50.9802803783684</v>
       </c>
       <c r="Y40" t="n">
-        <v>92.088076133607</v>
+        <v>108.00746411118</v>
       </c>
       <c r="Z40" t="n">
-        <v>28.1067763543985</v>
+        <v>22.8965189208842</v>
       </c>
       <c r="AA40" t="n">
-        <v>73.88095620086629</v>
+        <v>69.5611149286418</v>
       </c>
       <c r="AB40" t="n">
-        <v>77.93545490822029</v>
+        <v>77.21796236355701</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.830002307294166</v>
+        <v>5.72835030582709</v>
       </c>
       <c r="AD40" t="n">
-        <v>-11.5633811016942</v>
+        <v>1.19604000201015</v>
       </c>
       <c r="AE40" t="n">
-        <v>-37.6361260345579</v>
+        <v>-35.1445374686805</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56.4465134642665</v>
+        <v>56.3425304042709</v>
       </c>
       <c r="C41" t="n">
-        <v>34.489108065773</v>
+        <v>22.5797184348239</v>
       </c>
       <c r="D41" t="n">
-        <v>12.3702511569964</v>
+        <v>10.8350209196533</v>
       </c>
       <c r="E41" t="n">
-        <v>140.806728140815</v>
+        <v>125.690681901622</v>
       </c>
       <c r="F41" t="n">
-        <v>62.5634425127269</v>
+        <v>73.75465455281859</v>
       </c>
       <c r="G41" t="n">
-        <v>86.4308005532472</v>
+        <v>92.2764547593838</v>
       </c>
       <c r="H41" t="n">
-        <v>23.5104053665262</v>
+        <v>23.2599209837997</v>
       </c>
       <c r="I41" t="n">
-        <v>52.3843934655453</v>
+        <v>51.4827593317049</v>
       </c>
       <c r="J41" t="n">
-        <v>64.6805404887016</v>
+        <v>51.6653558167035</v>
       </c>
       <c r="K41" t="n">
-        <v>28.4959395374855</v>
+        <v>32.0039881164234</v>
       </c>
       <c r="L41" t="n">
-        <v>40.3364605903718</v>
+        <v>35.2937881482744</v>
       </c>
       <c r="M41" t="n">
-        <v>46.3827026566237</v>
+        <v>73.56052756317121</v>
       </c>
       <c r="N41" t="n">
-        <v>68.79755400091911</v>
+        <v>69.1912348078022</v>
       </c>
       <c r="O41" t="n">
-        <v>64.6805404887016</v>
+        <v>51.7624454850271</v>
       </c>
       <c r="P41" t="n">
-        <v>98.11320754716979</v>
+        <v>62.5763888335503</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.0933188691535</v>
+        <v>59.4430695775191</v>
       </c>
       <c r="R41" t="n">
-        <v>28.8167783378288</v>
+        <v>26.8402950677067</v>
       </c>
       <c r="S41" t="n">
-        <v>58.0933188691535</v>
+        <v>23.0415753837896</v>
       </c>
       <c r="T41" t="n">
-        <v>8.689156722543061</v>
+        <v>11.0262783591611</v>
       </c>
       <c r="U41" t="n">
-        <v>97.6166485864419</v>
+        <v>110.226603784211</v>
       </c>
       <c r="V41" t="n">
-        <v>12.3702511569964</v>
+        <v>10.8350209196533</v>
       </c>
       <c r="W41" t="n">
-        <v>22.9347742979487</v>
+        <v>24.3761900782051</v>
       </c>
       <c r="X41" t="n">
-        <v>52.7037739077051</v>
+        <v>51.4891406043121</v>
       </c>
       <c r="Y41" t="n">
-        <v>104.935783719273</v>
+        <v>100.586817327899</v>
       </c>
       <c r="Z41" t="n">
-        <v>23.9373549159414</v>
+        <v>24.1245434666153</v>
       </c>
       <c r="AA41" t="n">
-        <v>76.9139520678623</v>
+        <v>70.4256108010471</v>
       </c>
       <c r="AB41" t="n">
-        <v>82.6456903601963</v>
+        <v>76.5614786337127</v>
       </c>
       <c r="AC41" t="n">
-        <v>3.29961176109463</v>
+        <v>6.18204752087348</v>
       </c>
       <c r="AD41" t="n">
-        <v>-5.89683400645622</v>
+        <v>-0.541516245487354</v>
       </c>
       <c r="AE41" t="n">
-        <v>-56.0851892030129</v>
+        <v>-20.1977923410488</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>46.5620363887616</v>
+        <v>57.0794223229236</v>
       </c>
       <c r="C42" t="n">
-        <v>36.7640241808037</v>
+        <v>28.9757508713759</v>
       </c>
       <c r="D42" t="n">
-        <v>16.6945481273221</v>
+        <v>8.499635406869089</v>
       </c>
       <c r="E42" t="n">
-        <v>133.834781006935</v>
+        <v>119.296372838545</v>
       </c>
       <c r="F42" t="n">
-        <v>69.9903160128334</v>
+        <v>70.58198575449789</v>
       </c>
       <c r="G42" t="n">
-        <v>90.9983631853232</v>
+        <v>88.0197226027998</v>
       </c>
       <c r="H42" t="n">
-        <v>30.9951221043311</v>
+        <v>22.8430382174688</v>
       </c>
       <c r="I42" t="n">
-        <v>51.5998829513912</v>
+        <v>49.0225809781933</v>
       </c>
       <c r="J42" t="n">
-        <v>56.4915609128407</v>
+        <v>44.8327866033593</v>
       </c>
       <c r="K42" t="n">
-        <v>29.7265380847226</v>
+        <v>31.4482205177579</v>
       </c>
       <c r="L42" t="n">
-        <v>36.7133027516066</v>
+        <v>33.9444153693106</v>
       </c>
       <c r="M42" t="n">
-        <v>62.7344774779627</v>
+        <v>68.9265070482214</v>
       </c>
       <c r="N42" t="n">
-        <v>65.860863782528</v>
+        <v>67.2354651858802</v>
       </c>
       <c r="O42" t="n">
-        <v>55.1102241809975</v>
+        <v>48.1143946623642</v>
       </c>
       <c r="P42" t="n">
-        <v>72.63150525093199</v>
+        <v>57.5380378534447</v>
       </c>
       <c r="Q42" t="n">
-        <v>59.7183456889957</v>
+        <v>53.6712253556764</v>
       </c>
       <c r="R42" t="n">
-        <v>28.8231462608559</v>
+        <v>27.5649431378129</v>
       </c>
       <c r="S42" t="n">
-        <v>37.0966797826969</v>
+        <v>16.2977427368707</v>
       </c>
       <c r="T42" t="n">
-        <v>6.52345574015204</v>
+        <v>6.89566153836531</v>
       </c>
       <c r="U42" t="n">
-        <v>126.020456772418</v>
+        <v>94.78235286529269</v>
       </c>
       <c r="V42" t="n">
-        <v>16.6945481273221</v>
+        <v>8.499635406869089</v>
       </c>
       <c r="W42" t="n">
-        <v>24.3550362442381</v>
+        <v>24.2600137868829</v>
       </c>
       <c r="X42" t="n">
-        <v>51.755912970307</v>
+        <v>48.8682834715842</v>
       </c>
       <c r="Y42" t="n">
-        <v>113.90726585975</v>
+        <v>86.6935235542052</v>
       </c>
       <c r="Z42" t="n">
-        <v>23.9235679152085</v>
+        <v>23.2513125504865</v>
       </c>
       <c r="AA42" t="n">
-        <v>72.5626537049049</v>
+        <v>66.89525709982119</v>
       </c>
       <c r="AB42" t="n">
-        <v>80.8346254296624</v>
+        <v>71.0216313106192</v>
       </c>
       <c r="AC42" t="n">
-        <v>4.31039209256631</v>
+        <v>6.10120222153197</v>
       </c>
       <c r="AD42" t="n">
-        <v>-3.21671024489646</v>
+        <v>-4.06655307686886</v>
       </c>
       <c r="AE42" t="n">
-        <v>-33.1957297977079</v>
+        <v>-19.841842653009</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.2439553443127</v>
+        <v>53.8335513411025</v>
       </c>
       <c r="C43" t="n">
-        <v>37.7015551879847</v>
+        <v>25.9448073714254</v>
       </c>
       <c r="D43" t="n">
-        <v>14.8968126713008</v>
+        <v>7.27743397322885</v>
       </c>
       <c r="E43" t="n">
-        <v>129.714262079432</v>
+        <v>108.85549167396</v>
       </c>
       <c r="F43" t="n">
-        <v>70.37871130574069</v>
+        <v>70.9146176147672</v>
       </c>
       <c r="G43" t="n">
-        <v>90.6647511592364</v>
+        <v>85.03438793379959</v>
       </c>
       <c r="H43" t="n">
-        <v>27.8651353459913</v>
+        <v>27.1333090435885</v>
       </c>
       <c r="I43" t="n">
-        <v>50.8624611548332</v>
+        <v>46.5114728592953</v>
       </c>
       <c r="J43" t="n">
-        <v>54.476957583275</v>
+        <v>46.5302667089048</v>
       </c>
       <c r="K43" t="n">
-        <v>30.0424733453067</v>
+        <v>30.7190153436506</v>
       </c>
       <c r="L43" t="n">
-        <v>36.7316488548545</v>
+        <v>36.2632996042329</v>
       </c>
       <c r="M43" t="n">
-        <v>70.737708649629</v>
+        <v>71.2729722928471</v>
       </c>
       <c r="N43" t="n">
-        <v>70.33427366659519</v>
+        <v>70.8185060907981</v>
       </c>
       <c r="O43" t="n">
-        <v>54.7974276347825</v>
+        <v>52.4606564234662</v>
       </c>
       <c r="P43" t="n">
-        <v>10.2229368760931</v>
+        <v>52.5823809550091</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.2348176827448</v>
+        <v>51.3936532325221</v>
       </c>
       <c r="R43" t="n">
-        <v>26.2643830128748</v>
+        <v>23.5709525483992</v>
       </c>
       <c r="S43" t="n">
-        <v>29.2070656263564</v>
+        <v>22.2431398732759</v>
       </c>
       <c r="T43" t="n">
-        <v>8.074472516429269</v>
+        <v>3.90013448113134</v>
       </c>
       <c r="U43" t="n">
-        <v>119.361743802108</v>
+        <v>86.4542094644675</v>
       </c>
       <c r="V43" t="n">
-        <v>14.8968126713008</v>
+        <v>7.27743397322885</v>
       </c>
       <c r="W43" t="n">
-        <v>24.7886606637231</v>
+        <v>23.4770302533334</v>
       </c>
       <c r="X43" t="n">
-        <v>50.9802803783684</v>
+        <v>46.5120244630611</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.00746411118</v>
+        <v>84.4956218099797</v>
       </c>
       <c r="Z43" t="n">
-        <v>22.8965189208842</v>
+        <v>19.7297319137262</v>
       </c>
       <c r="AA43" t="n">
-        <v>69.5611149286418</v>
+        <v>60.4750799470857</v>
       </c>
       <c r="AB43" t="n">
-        <v>77.21796236355701</v>
+        <v>65.3996281418914</v>
       </c>
       <c r="AC43" t="n">
-        <v>5.72835030582709</v>
+        <v>5.01304758410611</v>
       </c>
       <c r="AD43" t="n">
-        <v>1.19604000201015</v>
+        <v>-7.32189743435956</v>
       </c>
       <c r="AE43" t="n">
-        <v>-35.1445374686805</v>
+        <v>-23.7472987656634</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.3425304042709</v>
+        <v>54.5712307730068</v>
       </c>
       <c r="C44" t="n">
-        <v>22.5797184348239</v>
+        <v>25.6188739444925</v>
       </c>
       <c r="D44" t="n">
-        <v>10.8350209196533</v>
+        <v>4.74860357019193</v>
       </c>
       <c r="E44" t="n">
-        <v>125.690681901622</v>
+        <v>104.115239907723</v>
       </c>
       <c r="F44" t="n">
-        <v>73.75465455281859</v>
+        <v>70.2782389275001</v>
       </c>
       <c r="G44" t="n">
-        <v>92.2764547593838</v>
+        <v>82.77891229367199</v>
       </c>
       <c r="H44" t="n">
-        <v>23.2599209837997</v>
+        <v>27.6670182261514</v>
       </c>
       <c r="I44" t="n">
-        <v>51.4827593317049</v>
+        <v>43.7920452280218</v>
       </c>
       <c r="J44" t="n">
-        <v>51.6653558167035</v>
+        <v>44.1411436308727</v>
       </c>
       <c r="K44" t="n">
-        <v>32.0039881164234</v>
+        <v>31.6328114568884</v>
       </c>
       <c r="L44" t="n">
-        <v>35.2937881482744</v>
+        <v>35.4498725357746</v>
       </c>
       <c r="M44" t="n">
-        <v>73.56052756317121</v>
+        <v>70.50176061196041</v>
       </c>
       <c r="N44" t="n">
-        <v>69.1912348078022</v>
+        <v>65.7982237680442</v>
       </c>
       <c r="O44" t="n">
-        <v>51.7624454850271</v>
+        <v>48.4739030347429</v>
       </c>
       <c r="P44" t="n">
-        <v>62.5763888335503</v>
+        <v>43.2858542409875</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.4430695775191</v>
+        <v>43.7878640439254</v>
       </c>
       <c r="R44" t="n">
-        <v>26.8402950677067</v>
+        <v>21.9968571913591</v>
       </c>
       <c r="S44" t="n">
-        <v>23.0415753837896</v>
+        <v>19.6195686138675</v>
       </c>
       <c r="T44" t="n">
-        <v>11.0262783591611</v>
+        <v>0.754881161672213</v>
       </c>
       <c r="U44" t="n">
-        <v>110.226603784211</v>
+        <v>85.44103445569399</v>
       </c>
       <c r="V44" t="n">
-        <v>10.8350209196533</v>
+        <v>4.74860357019193</v>
       </c>
       <c r="W44" t="n">
-        <v>24.3761900782051</v>
+        <v>23.8203155309706</v>
       </c>
       <c r="X44" t="n">
-        <v>51.4891406043121</v>
+        <v>43.8051042469741</v>
       </c>
       <c r="Y44" t="n">
-        <v>100.586817327899</v>
+        <v>74.45559076597659</v>
       </c>
       <c r="Z44" t="n">
-        <v>24.1245434666153</v>
+        <v>17.3570790839955</v>
       </c>
       <c r="AA44" t="n">
-        <v>70.4256108010471</v>
+        <v>60.0967488685732</v>
       </c>
       <c r="AB44" t="n">
-        <v>76.5614786337127</v>
+        <v>63.1551831243484</v>
       </c>
       <c r="AC44" t="n">
-        <v>6.18204752087348</v>
+        <v>5.21452230472804</v>
       </c>
       <c r="AD44" t="n">
-        <v>-0.541516245487354</v>
+        <v>-5.8073722522407</v>
       </c>
       <c r="AE44" t="n">
-        <v>-20.1977923410488</v>
+        <v>-23.9742285472704</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57.0794223229236</v>
+        <v>43.30488876616</v>
       </c>
       <c r="C45" t="n">
-        <v>28.9757508713759</v>
+        <v>22.9554469088435</v>
       </c>
       <c r="D45" t="n">
-        <v>8.499635406869089</v>
+        <v>3.65305909197813</v>
       </c>
       <c r="E45" t="n">
-        <v>119.296372838545</v>
+        <v>87.1775752139734</v>
       </c>
       <c r="F45" t="n">
-        <v>70.58198575449789</v>
+        <v>61.3107230580753</v>
       </c>
       <c r="G45" t="n">
-        <v>88.0197226027998</v>
+        <v>71.76344658450699</v>
       </c>
       <c r="H45" t="n">
-        <v>22.8430382174688</v>
+        <v>24.7563614225775</v>
       </c>
       <c r="I45" t="n">
-        <v>49.0225809781933</v>
+        <v>38.9806347801692</v>
       </c>
       <c r="J45" t="n">
-        <v>44.8327866033593</v>
+        <v>41.5413961560981</v>
       </c>
       <c r="K45" t="n">
-        <v>31.4482205177579</v>
+        <v>33.1088348246674</v>
       </c>
       <c r="L45" t="n">
-        <v>33.9444153693106</v>
+        <v>37.1050803883535</v>
       </c>
       <c r="M45" t="n">
-        <v>68.9265070482214</v>
+        <v>68.68860667950609</v>
       </c>
       <c r="N45" t="n">
-        <v>67.2354651858802</v>
+        <v>53.8052669277508</v>
       </c>
       <c r="O45" t="n">
-        <v>48.1143946623642</v>
+        <v>41.2160531301874</v>
       </c>
       <c r="P45" t="n">
-        <v>57.5380378534447</v>
+        <v>7.75187465220218</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.6712253556764</v>
+        <v>43.3078862193394</v>
       </c>
       <c r="R45" t="n">
-        <v>27.5649431378129</v>
+        <v>19.0683632173121</v>
       </c>
       <c r="S45" t="n">
-        <v>16.2977427368707</v>
+        <v>17.8561209086156</v>
       </c>
       <c r="T45" t="n">
-        <v>6.89566153836531</v>
+        <v>6.79391317864071</v>
       </c>
       <c r="U45" t="n">
-        <v>94.78235286529269</v>
+        <v>47.4628796294544</v>
       </c>
       <c r="V45" t="n">
-        <v>8.499635406869089</v>
+        <v>3.65305909197813</v>
       </c>
       <c r="W45" t="n">
-        <v>24.2600137868829</v>
+        <v>24.2296651434816</v>
       </c>
       <c r="X45" t="n">
-        <v>48.8682834715842</v>
+        <v>39.0724625496535</v>
       </c>
       <c r="Y45" t="n">
-        <v>86.6935235542052</v>
+        <v>66.69500346144611</v>
       </c>
       <c r="Z45" t="n">
-        <v>23.2513125504865</v>
+        <v>17.481256139029</v>
       </c>
       <c r="AA45" t="n">
-        <v>66.89525709982119</v>
+        <v>54.0900899902858</v>
       </c>
       <c r="AB45" t="n">
-        <v>71.0216313106192</v>
+        <v>56.761655433171</v>
       </c>
       <c r="AC45" t="n">
-        <v>6.10120222153197</v>
+        <v>5.60672736443823</v>
       </c>
       <c r="AD45" t="n">
-        <v>-4.06655307686886</v>
+        <v>-4.58952959119598</v>
       </c>
       <c r="AE45" t="n">
-        <v>-19.841842653009</v>
+        <v>-22.3835742324366</v>
       </c>
     </row>
   </sheetData>
